--- a/Display_Bookshelves/StudyChairsDetails.xlsx
+++ b/Display_Bookshelves/StudyChairsDetails.xlsx
@@ -32,6 +32,9 @@
     <t>₹8,599</t>
   </si>
   <si>
+    <t>(Teak Finish, Sandstorm)</t>
+  </si>
+  <si>
     <t>Edmund Study Chair</t>
   </si>
   <si>
@@ -50,9 +53,6 @@
     <t>₹11,499</t>
   </si>
   <si>
-    <t>(Teak Finish, Sandstorm)</t>
-  </si>
-  <si>
     <t>Charles Study Chair - 2 Axis Adjustable</t>
   </si>
   <si>
@@ -116,6 +116,18 @@
     <t>(Red, Fabric Seat)</t>
   </si>
   <si>
+    <t>Hawley Study Chair</t>
+  </si>
+  <si>
+    <t>₹6,999</t>
+  </si>
+  <si>
+    <t>Galen Study Chair</t>
+  </si>
+  <si>
+    <t>(Black, Nylon Chair Base)</t>
+  </si>
+  <si>
     <t>Mika Study Chair</t>
   </si>
   <si>
@@ -123,18 +135,6 @@
   </si>
   <si>
     <t>₹13,599</t>
-  </si>
-  <si>
-    <t>Hawley Study Chair</t>
-  </si>
-  <si>
-    <t>₹6,999</t>
-  </si>
-  <si>
-    <t>Galen Study Chair</t>
-  </si>
-  <si>
-    <t>(Black, Nylon Chair Base)</t>
   </si>
   <si>
     <t>(Scarlet Red)</t>
@@ -236,35 +236,35 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -272,7 +272,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -286,7 +286,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -294,7 +294,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -308,7 +308,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -319,7 +319,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -338,7 +338,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -363,7 +363,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -374,7 +374,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -385,7 +385,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -393,43 +393,43 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -437,7 +437,7 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
